--- a/results/table2/all.xlsx
+++ b/results/table2/all.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="444" uniqueCount="285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="285">
   <si>
     <t>Racial-Ethnic Group</t>
   </si>
@@ -529,21 +529,24 @@
     <t>5271 (94.0)</t>
   </si>
   <si>
+    <t/>
+  </si>
+  <si>
+    <t>469 (90.0)</t>
+  </si>
+  <si>
+    <t>2411 (93.0)</t>
+  </si>
+  <si>
+    <t>583 (91.5)</t>
+  </si>
+  <si>
+    <t>2399 (93.1)</t>
+  </si>
+  <si>
     <t>Diabetes Type, n (%)</t>
   </si>
   <si>
-    <t>469 (90.0)</t>
-  </si>
-  <si>
-    <t>2411 (93.0)</t>
-  </si>
-  <si>
-    <t>583 (91.5)</t>
-  </si>
-  <si>
-    <t>2399 (93.1)</t>
-  </si>
-  <si>
     <t>27 (2.2)</t>
   </si>
   <si>
@@ -586,271 +589,268 @@
     <t>3902 (69.6)</t>
   </si>
   <si>
+    <t>300 (57.6)</t>
+  </si>
+  <si>
+    <t>1759 (67.8)</t>
+  </si>
+  <si>
+    <t>374 (58.7)</t>
+  </si>
+  <si>
+    <t>1754 (68.0)</t>
+  </si>
+  <si>
     <t>Connective Tissue Disease, n (%)</t>
   </si>
   <si>
-    <t>300 (57.6)</t>
-  </si>
-  <si>
-    <t>1759 (67.8)</t>
-  </si>
-  <si>
-    <t>374 (58.7)</t>
-  </si>
-  <si>
-    <t>1754 (68.0)</t>
-  </si>
-  <si>
     <t>53 (4.4)</t>
   </si>
   <si>
     <t>249 (4.4)</t>
   </si>
   <si>
+    <t>24 (4.6)</t>
+  </si>
+  <si>
+    <t>93 (3.6)</t>
+  </si>
+  <si>
+    <t>27 (4.2)</t>
+  </si>
+  <si>
+    <t>101 (3.9)</t>
+  </si>
+  <si>
     <t>Pneumonia, n (%)</t>
   </si>
   <si>
-    <t>24 (4.6)</t>
-  </si>
-  <si>
-    <t>93 (3.6)</t>
-  </si>
-  <si>
-    <t>27 (4.2)</t>
-  </si>
-  <si>
-    <t>101 (3.9)</t>
-  </si>
-  <si>
     <t>86 (7.1)</t>
   </si>
   <si>
     <t>346 (6.2)</t>
   </si>
   <si>
+    <t>28 (5.4)</t>
+  </si>
+  <si>
+    <t>122 (4.7)</t>
+  </si>
+  <si>
+    <t>40 (6.3)</t>
+  </si>
+  <si>
     <t>Urinary Tract Infection, n (%)</t>
   </si>
   <si>
-    <t>28 (5.4)</t>
-  </si>
-  <si>
-    <t>122 (4.7)</t>
-  </si>
-  <si>
-    <t>40 (6.3)</t>
-  </si>
-  <si>
     <t>4 (0.3)</t>
   </si>
   <si>
     <t>27 (0.5)</t>
   </si>
   <si>
+    <t>5 (1.0)</t>
+  </si>
+  <si>
+    <t>29 (1.1)</t>
+  </si>
+  <si>
+    <t>3 (0.5)</t>
+  </si>
+  <si>
+    <t>13 (0.5)</t>
+  </si>
+  <si>
     <t>Biliary Tract Infection, n (%)</t>
   </si>
   <si>
-    <t>5 (1.0)</t>
-  </si>
-  <si>
-    <t>29 (1.1)</t>
-  </si>
-  <si>
-    <t>3 (0.5)</t>
-  </si>
-  <si>
-    <t>13 (0.5)</t>
-  </si>
-  <si>
     <t>12 (0.2)</t>
   </si>
   <si>
+    <t>9 (0.3)</t>
+  </si>
+  <si>
+    <t>7 (0.3)</t>
+  </si>
+  <si>
     <t>Skin Infection, n (%)</t>
   </si>
   <si>
-    <t>9 (0.3)</t>
-  </si>
-  <si>
-    <t>7 (0.3)</t>
-  </si>
-  <si>
     <t>2 (0.2)</t>
   </si>
   <si>
     <t>7 (0.1)</t>
   </si>
   <si>
+    <t>1 (0.2)</t>
+  </si>
+  <si>
+    <t>3 (0.1)</t>
+  </si>
+  <si>
     <t>Age, median [Q1,Q3]</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
-    <t>1 (0.2)</t>
-  </si>
-  <si>
-    <t>3 (0.1)</t>
-  </si>
-  <si>
     <t>63 [50,76]</t>
   </si>
   <si>
     <t>68 [57,79]</t>
   </si>
   <si>
+    <t>69 [57,78]</t>
+  </si>
+  <si>
+    <t>70 [60,80]</t>
+  </si>
+  <si>
+    <t>65 [51,77]</t>
+  </si>
+  <si>
+    <t>69 [58,79]</t>
+  </si>
+  <si>
     <t>ICU LOS (days, if deceased), median [Q1,Q3]</t>
   </si>
   <si>
-    <t>69 [57,78]</t>
-  </si>
-  <si>
-    <t>70 [60,80]</t>
-  </si>
-  <si>
-    <t>65 [51,77]</t>
-  </si>
-  <si>
-    <t>69 [58,79]</t>
-  </si>
-  <si>
     <t>5.50 [3.38,9.88]</t>
   </si>
   <si>
     <t>5.83 [3.46,10.50]</t>
   </si>
   <si>
+    <t>5.50 [3.13,10.08]</t>
+  </si>
+  <si>
+    <t>5.79 [3.38,10.71]</t>
+  </si>
+  <si>
+    <t>5.00 [3.42,9.63]</t>
+  </si>
+  <si>
+    <t>5.50 [3.25,10.17]</t>
+  </si>
+  <si>
     <t>ICU LOS (days, if survived), median [Q1,Q3]</t>
   </si>
   <si>
-    <t>5.50 [3.13,10.08]</t>
-  </si>
-  <si>
-    <t>5.79 [3.38,10.71]</t>
-  </si>
-  <si>
-    <t>5.00 [3.42,9.63]</t>
-  </si>
-  <si>
-    <t>5.50 [3.25,10.17]</t>
-  </si>
-  <si>
     <t>4.58 [2.92,8.88]</t>
   </si>
   <si>
     <t>4.46 [2.92,8.25]</t>
   </si>
   <si>
+    <t>4.83 [2.99,8.52]</t>
+  </si>
+  <si>
+    <t>4.38 [2.88,8.00]</t>
+  </si>
+  <si>
+    <t>4.58 [2.96,8.93]</t>
+  </si>
+  <si>
+    <t>4.21 [2.88,8.17]</t>
+  </si>
+  <si>
     <t>Charlson Comorbidity Index, median [Q1,Q3]</t>
   </si>
   <si>
-    <t>4.83 [2.99,8.52]</t>
-  </si>
-  <si>
-    <t>4.38 [2.88,8.00]</t>
-  </si>
-  <si>
-    <t>4.58 [2.96,8.93]</t>
-  </si>
-  <si>
-    <t>4.21 [2.88,8.17]</t>
-  </si>
-  <si>
     <t>6 [4,8]</t>
   </si>
   <si>
+    <t>6 [5,9]</t>
+  </si>
+  <si>
+    <t>6 [4,9]</t>
+  </si>
+  <si>
     <t>SOFA Score (admission), median [Q1,Q3]</t>
   </si>
   <si>
-    <t>6 [5,9]</t>
-  </si>
-  <si>
-    <t>6 [4,9]</t>
+    <t>7 [4,10]</t>
+  </si>
+  <si>
+    <t>7 [5,10]</t>
   </si>
   <si>
     <t>MV Time (duration in the stay, % of ICU LOS), median [Q1,Q3]</t>
   </si>
   <si>
-    <t>7 [4,10]</t>
-  </si>
-  <si>
-    <t>7 [5,10]</t>
-  </si>
-  <si>
     <t>0.31 [0.13,0.53]</t>
   </si>
   <si>
     <t>0.27 [0.13,0.47]</t>
   </si>
   <si>
+    <t>0.36 [0.17,0.57]</t>
+  </si>
+  <si>
+    <t>0.29 [0.14,0.49]</t>
+  </si>
+  <si>
+    <t>0.35 [0.17,0.56]</t>
+  </si>
+  <si>
+    <t>0.30 [0.15,0.52]</t>
+  </si>
+  <si>
     <t>MV_init_offset_abs_hours, median [Q1,Q3]</t>
   </si>
   <si>
-    <t>0.36 [0.17,0.57]</t>
-  </si>
-  <si>
-    <t>0.29 [0.14,0.49]</t>
-  </si>
-  <si>
-    <t>0.35 [0.17,0.56]</t>
-  </si>
-  <si>
-    <t>0.30 [0.15,0.52]</t>
-  </si>
-  <si>
     <t>3.0 [1.0,10.0]</t>
   </si>
   <si>
     <t>3.0 [1.0,13.0]</t>
   </si>
   <si>
+    <t>3.0 [1.0,8.0]</t>
+  </si>
+  <si>
+    <t>3.0 [1.0,7.0]</t>
+  </si>
+  <si>
+    <t>2.0 [1.0,8.0]</t>
+  </si>
+  <si>
+    <t>3.0 [1.0,9.0]</t>
+  </si>
+  <si>
     <t>RRT_init_offset_abs_hours, median [Q1,Q3]</t>
   </si>
   <si>
-    <t>3.0 [1.0,8.0]</t>
-  </si>
-  <si>
-    <t>3.0 [1.0,7.0]</t>
-  </si>
-  <si>
-    <t>2.0 [1.0,8.0]</t>
-  </si>
-  <si>
-    <t>3.0 [1.0,9.0]</t>
-  </si>
-  <si>
     <t>39.0 [12.0,99.0]</t>
   </si>
   <si>
     <t>45.0 [14.2,99.8]</t>
   </si>
   <si>
+    <t>34.0 [12.0,74.0]</t>
+  </si>
+  <si>
+    <t>36.0 [11.0,76.2]</t>
+  </si>
+  <si>
+    <t>31.0 [12.5,65.5]</t>
+  </si>
+  <si>
+    <t>34.0 [11.0,76.0]</t>
+  </si>
+  <si>
     <t>VP_init_offset_abs_hours, median [Q1,Q3]</t>
   </si>
   <si>
-    <t>34.0 [12.0,74.0]</t>
-  </si>
-  <si>
-    <t>36.0 [11.0,76.2]</t>
-  </si>
-  <si>
-    <t>31.0 [12.5,65.5]</t>
-  </si>
-  <si>
-    <t>34.0 [11.0,76.0]</t>
-  </si>
-  <si>
     <t>4.0 [1.0,13.0]</t>
   </si>
   <si>
     <t>3.0 [1.0,12.0]</t>
   </si>
   <si>
+    <t>3.0 [1.0,11.0]</t>
+  </si>
+  <si>
+    <t>3.0 [1.0,11.5]</t>
+  </si>
+  <si>
     <t>Vasopressor Time (duration in the stay, % of ICU LOS), median [Q1,Q3]</t>
-  </si>
-  <si>
-    <t>3.0 [1.0,11.0]</t>
-  </si>
-  <si>
-    <t>3.0 [1.0,11.5]</t>
   </si>
   <si>
     <t>0.25 [0.09,0.49]</t>
@@ -918,7 +918,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
@@ -928,6 +928,9 @@
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="general"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="general"/>
@@ -1246,18 +1249,18 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="12" max="12" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
@@ -2066,8 +2069,8 @@
       <c r="A24" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="B24" s="2">
-        <v>1</v>
+      <c r="B24" s="1" t="s">
+        <v>79</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>150</v>
@@ -2175,7 +2178,7 @@
       <c r="D27" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="E27" s="1" t="s">
+      <c r="E27" s="4" t="s">
         <v>171</v>
       </c>
       <c r="F27" s="1" t="s">
@@ -2200,38 +2203,40 @@
     </row>
     <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
       <c r="A28" s="1" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>79</v>
       </c>
       <c r="C28" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="E28" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="D28" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="E28" s="1"/>
       <c r="F28" s="2">
         <v>1</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="J28" s="1" t="s">
         <v>79</v>
       </c>
       <c r="K28" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="L28" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75">
@@ -2240,30 +2245,30 @@
         <v>154</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E29" s="1"/>
       <c r="F29" s="2">
         <v>2</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="I29" s="1"/>
       <c r="J29" s="1" t="s">
         <v>154</v>
       </c>
       <c r="K29" s="2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="L29" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75">
@@ -2272,13 +2277,13 @@
         <v>168</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="E30" s="1" t="s">
         <v>190</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>171</v>
       </c>
       <c r="F30" s="1" t="s">
         <v>168</v>
@@ -2302,19 +2307,19 @@
     </row>
     <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75">
       <c r="A31" s="1" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>79</v>
       </c>
       <c r="C31" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="E31" s="1" t="s">
         <v>195</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>197</v>
       </c>
       <c r="F31" s="1" t="s">
         <v>79</v>
@@ -2326,7 +2331,7 @@
         <v>199</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="J31" s="1" t="s">
         <v>79</v>
@@ -2340,19 +2345,19 @@
     </row>
     <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75">
       <c r="A32" s="1" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>79</v>
       </c>
       <c r="C32" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="E32" s="1" t="s">
         <v>202</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>204</v>
       </c>
       <c r="F32" s="1" t="s">
         <v>79</v>
@@ -2364,7 +2369,7 @@
         <v>206</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="J32" s="1" t="s">
         <v>79</v>
@@ -2378,19 +2383,19 @@
     </row>
     <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18.75">
       <c r="A33" s="1" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>79</v>
       </c>
       <c r="C33" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="E33" s="1" t="s">
         <v>208</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>210</v>
       </c>
       <c r="F33" s="1" t="s">
         <v>79</v>
@@ -2402,7 +2407,7 @@
         <v>212</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="J33" s="1" t="s">
         <v>79</v>
@@ -2416,7 +2421,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18.75">
       <c r="A34" s="1" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>79</v>
@@ -2425,10 +2430,10 @@
         <v>150</v>
       </c>
       <c r="D34" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="E34" s="1" t="s">
         <v>215</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>216</v>
       </c>
       <c r="F34" s="1" t="s">
         <v>79</v>
@@ -2438,7 +2443,7 @@
         <v>217</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="J34" s="1" t="s">
         <v>79</v>
@@ -2450,45 +2455,45 @@
     </row>
     <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18.75">
       <c r="A35" s="1" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>79</v>
       </c>
       <c r="C35" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="E35" s="1" t="s">
         <v>219</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>221</v>
       </c>
       <c r="F35" s="2">
         <v>1</v>
       </c>
-      <c r="G35" s="4" t="s">
-        <v>222</v>
+      <c r="G35" s="5" t="s">
+        <v>171</v>
       </c>
       <c r="H35" s="2" t="s">
         <v>151</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="J35" s="1" t="s">
         <v>79</v>
       </c>
       <c r="K35" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="L35" s="2" t="s">
         <v>223</v>
-      </c>
-      <c r="L35" s="2" t="s">
-        <v>224</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18.75">
       <c r="A36" s="1" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="B36" s="1"/>
       <c r="C36" s="2" t="s">
@@ -2498,29 +2503,29 @@
         <v>226</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="F36" s="1"/>
       <c r="G36" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="H36" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="H36" s="2" t="s">
-        <v>229</v>
-      </c>
       <c r="I36" s="1" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="J36" s="1"/>
       <c r="K36" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="L36" s="2" t="s">
         <v>230</v>
-      </c>
-      <c r="L36" s="2" t="s">
-        <v>231</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="18.75">
       <c r="A37" s="1" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="B37" s="1"/>
       <c r="C37" s="2" t="s">
@@ -2530,29 +2535,29 @@
         <v>233</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="F37" s="1"/>
       <c r="G37" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="H37" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="H37" s="2" t="s">
-        <v>236</v>
-      </c>
       <c r="I37" s="1" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="J37" s="1"/>
       <c r="K37" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="L37" s="2" t="s">
         <v>237</v>
-      </c>
-      <c r="L37" s="2" t="s">
-        <v>238</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="18.75">
       <c r="A38" s="1" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="B38" s="1"/>
       <c r="C38" s="2" t="s">
@@ -2562,29 +2567,29 @@
         <v>240</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="F38" s="1"/>
       <c r="G38" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="H38" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="H38" s="2" t="s">
-        <v>243</v>
-      </c>
       <c r="I38" s="1" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="J38" s="1"/>
       <c r="K38" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="L38" s="2" t="s">
         <v>244</v>
-      </c>
-      <c r="L38" s="2" t="s">
-        <v>245</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="18.75">
       <c r="A39" s="1" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="B39" s="1"/>
       <c r="C39" s="2" t="s">
@@ -2594,21 +2599,21 @@
         <v>246</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="F39" s="1"/>
       <c r="G39" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="H39" s="2" t="s">
         <v>246</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="J39" s="1"/>
       <c r="K39" s="2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="L39" s="2" t="s">
         <v>246</v>
@@ -2616,39 +2621,39 @@
     </row>
     <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="18.75">
       <c r="A40" s="1" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="B40" s="1"/>
       <c r="C40" s="2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D40" s="2" t="s">
         <v>246</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="F40" s="1"/>
       <c r="G40" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="H40" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="I40" s="1" t="s">
         <v>249</v>
-      </c>
-      <c r="I40" s="1" t="s">
-        <v>247</v>
       </c>
       <c r="J40" s="1"/>
       <c r="K40" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="L40" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="18.75">
       <c r="A41" s="1" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="B41" s="1"/>
       <c r="C41" s="2" t="s">
@@ -2658,29 +2663,29 @@
         <v>254</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="F41" s="1"/>
       <c r="G41" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="H41" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="H41" s="2" t="s">
-        <v>257</v>
-      </c>
       <c r="I41" s="1" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="J41" s="1"/>
       <c r="K41" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="L41" s="2" t="s">
         <v>258</v>
-      </c>
-      <c r="L41" s="2" t="s">
-        <v>259</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="18.75">
       <c r="A42" s="1" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="B42" s="1"/>
       <c r="C42" s="2" t="s">
@@ -2690,29 +2695,29 @@
         <v>261</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="F42" s="1"/>
       <c r="G42" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="H42" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="H42" s="2" t="s">
-        <v>264</v>
-      </c>
       <c r="I42" s="1" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="J42" s="1"/>
       <c r="K42" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="L42" s="2" t="s">
         <v>265</v>
-      </c>
-      <c r="L42" s="2" t="s">
-        <v>266</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="18.75">
       <c r="A43" s="1" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="B43" s="1"/>
       <c r="C43" s="2" t="s">
@@ -2722,29 +2727,29 @@
         <v>268</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="F43" s="1"/>
       <c r="G43" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="H43" s="2" t="s">
         <v>270</v>
       </c>
-      <c r="H43" s="2" t="s">
-        <v>271</v>
-      </c>
       <c r="I43" s="1" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="J43" s="1"/>
       <c r="K43" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="L43" s="2" t="s">
         <v>272</v>
-      </c>
-      <c r="L43" s="2" t="s">
-        <v>273</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="18.75">
       <c r="A44" s="1" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="B44" s="1"/>
       <c r="C44" s="2" t="s">
@@ -2754,29 +2759,29 @@
         <v>275</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="F44" s="1"/>
       <c r="G44" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="J44" s="1"/>
       <c r="K44" s="2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="L44" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="18.75">
       <c r="A45" s="1" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="B45" s="1"/>
       <c r="C45" s="2" t="s">
@@ -2785,7 +2790,9 @@
       <c r="D45" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="E45" s="1"/>
+      <c r="E45" s="1" t="s">
+        <v>278</v>
+      </c>
       <c r="F45" s="1"/>
       <c r="G45" s="2" t="s">
         <v>281</v>
@@ -2794,7 +2801,7 @@
         <v>282</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="J45" s="1"/>
       <c r="K45" s="2" t="s">

--- a/results/table2/all.xlsx
+++ b/results/table2/all.xlsx
@@ -1699,17 +1699,17 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>3 (0.2)</t>
+          <t>1362 (90.6)</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>1 (0.0)</t>
+          <t>6634 (93.8)</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1719,17 +1719,17 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>2.0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>7 (1.3)</t>
+          <t>469 (90.0)</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>21 (0.8)</t>
+          <t>2411 (93.0)</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
@@ -1739,17 +1739,17 @@
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>2 (0.3)</t>
+          <t>583 (91.5)</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>1 (0.0)</t>
+          <t>2400 (93.1)</t>
         </is>
       </c>
     </row>
@@ -1757,49 +1757,49 @@
       <c r="A25" t="inlineStr"/>
       <c r="B25" t="inlineStr">
         <is>
-          <t>2.0</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>14 (0.9)</t>
+          <t>3 (0.2)</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>45 (0.6)</t>
+          <t>1 (0.0)</t>
         </is>
       </c>
       <c r="E25" t="inlineStr"/>
       <c r="F25" t="inlineStr">
         <is>
-          <t>3.0</t>
+          <t>2.0</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>45 (8.6)</t>
+          <t>7 (1.3)</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>161 (6.2)</t>
+          <t>21 (0.8)</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr">
         <is>
-          <t>2.0</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>8 (1.3)</t>
+          <t>2 (0.3)</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>25 (1.0)</t>
+          <t>1 (0.0)</t>
         </is>
       </c>
     </row>
@@ -1807,49 +1807,49 @@
       <c r="A26" t="inlineStr"/>
       <c r="B26" t="inlineStr">
         <is>
-          <t>3.0</t>
+          <t>2.0</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>124 (8.3)</t>
+          <t>14 (0.9)</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>393 (5.6)</t>
+          <t>45 (0.6)</t>
         </is>
       </c>
       <c r="E26" t="inlineStr"/>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>3.0</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>469 (90.0)</t>
+          <t>45 (8.6)</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>2411 (93.0)</t>
+          <t>161 (6.2)</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr">
         <is>
-          <t>3.0</t>
+          <t>2.0</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>44 (6.9)</t>
+          <t>8 (1.3)</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>153 (5.9)</t>
+          <t>25 (1.0)</t>
         </is>
       </c>
     </row>
@@ -1857,17 +1857,17 @@
       <c r="A27" t="inlineStr"/>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>3.0</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>1362 (90.6)</t>
+          <t>124 (8.3)</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>6634 (93.8)</t>
+          <t>393 (5.6)</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1893,17 +1893,17 @@
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>3.0</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>583 (91.5)</t>
+          <t>44 (6.9)</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>2400 (93.1)</t>
+          <t>153 (5.9)</t>
         </is>
       </c>
     </row>

--- a/results/table2/all.xlsx
+++ b/results/table2/all.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L45"/>
+  <dimension ref="A1:L43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1699,17 +1699,17 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>1362 (90.6)</t>
+          <t>1379 (91.7)</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>6634 (93.8)</t>
+          <t>6680 (94.4)</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1719,17 +1719,17 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>469 (90.0)</t>
+          <t>476 (91.4)</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>2411 (93.0)</t>
+          <t>2432 (93.8)</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
@@ -1739,17 +1739,17 @@
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>583 (91.5)</t>
+          <t>593 (93.1)</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>2400 (93.1)</t>
+          <t>2426 (94.1)</t>
         </is>
       </c>
     </row>
@@ -1757,99 +1757,111 @@
       <c r="A25" t="inlineStr"/>
       <c r="B25" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>3 (0.2)</t>
+          <t>124 (8.3)</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>1 (0.0)</t>
+          <t>393 (5.6)</t>
         </is>
       </c>
       <c r="E25" t="inlineStr"/>
       <c r="F25" t="inlineStr">
         <is>
-          <t>2.0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>7 (1.3)</t>
+          <t>45 (8.6)</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>21 (0.8)</t>
+          <t>161 (6.2)</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>2 (0.3)</t>
+          <t>44 (6.9)</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>1 (0.0)</t>
+          <t>153 (5.9)</t>
         </is>
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="inlineStr"/>
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Diabetes Type, n (%)</t>
+        </is>
+      </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>2.0</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>14 (0.9)</t>
+          <t>33 (2.2)</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>45 (0.6)</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr"/>
+          <t>167 (2.4)</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Diabetes Type, n (%)</t>
+        </is>
+      </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>3.0</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>45 (8.6)</t>
+          <t>14 (2.7)</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>161 (6.2)</t>
-        </is>
-      </c>
-      <c r="I26" t="inlineStr"/>
+          <t>59 (2.3)</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>Diabetes Type, n (%)</t>
+        </is>
+      </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>2.0</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>8 (1.3)</t>
+          <t>17 (2.7)</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>25 (1.0)</t>
+          <t>63 (2.4)</t>
         </is>
       </c>
     </row>
@@ -1857,184 +1869,188 @@
       <c r="A27" t="inlineStr"/>
       <c r="B27" t="inlineStr">
         <is>
-          <t>3.0</t>
+          <t>2.0</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>124 (8.3)</t>
+          <t>582 (38.7)</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>393 (5.6)</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>Diabetes Type, n (%)</t>
-        </is>
-      </c>
+          <t>1988 (28.1)</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr"/>
       <c r="F27" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>2.0</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>14 (2.7)</t>
+          <t>207 (39.7)</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>59 (2.3)</t>
+          <t>775 (29.9)</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr">
         <is>
-          <t>3.0</t>
+          <t>2.0</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>44 (6.9)</t>
+          <t>246 (38.6)</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>153 (5.9)</t>
+          <t>762 (29.5)</t>
         </is>
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>Diabetes Type, n (%)</t>
-        </is>
-      </c>
+      <c r="A28" t="inlineStr"/>
       <c r="B28" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>33 (2.2)</t>
+          <t>888 (59.1)</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>167 (2.4)</t>
+          <t>4918 (69.5)</t>
         </is>
       </c>
       <c r="E28" t="inlineStr"/>
       <c r="F28" t="inlineStr">
         <is>
-          <t>2.0</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>207 (39.7)</t>
+          <t>300 (57.6)</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>775 (29.9)</t>
-        </is>
-      </c>
-      <c r="I28" t="inlineStr">
-        <is>
-          <t>Diabetes Type, n (%)</t>
-        </is>
-      </c>
+          <t>1759 (67.8)</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>17 (2.7)</t>
+          <t>374 (58.7)</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>63 (2.4)</t>
+          <t>1754 (68.0)</t>
         </is>
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="inlineStr"/>
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Connective Tissue Disease, n (%)</t>
+        </is>
+      </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>2.0</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>582 (38.7)</t>
+          <t>62 (4.1)</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>1988 (28.1)</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr"/>
+          <t>305 (4.3)</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Connective Tissue Disease, n (%)</t>
+        </is>
+      </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>300 (57.6)</t>
+          <t>24 (4.6)</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>1759 (67.8)</t>
-        </is>
-      </c>
-      <c r="I29" t="inlineStr"/>
+          <t>93 (3.6)</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>Connective Tissue Disease, n (%)</t>
+        </is>
+      </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>2.0</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>246 (38.6)</t>
+          <t>27 (4.2)</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>762 (29.5)</t>
+          <t>101 (3.9)</t>
         </is>
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="inlineStr"/>
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Pneumonia, n (%)</t>
+        </is>
+      </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>888 (59.1)</t>
+          <t>103 (6.9)</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>4918 (69.5)</t>
+          <t>384 (5.4)</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Connective Tissue Disease, n (%)</t>
+          <t>Pneumonia, n (%)</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -2044,35 +2060,39 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>24 (4.6)</t>
+          <t>28 (5.4)</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>93 (3.6)</t>
-        </is>
-      </c>
-      <c r="I30" t="inlineStr"/>
+          <t>122 (4.7)</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>Pneumonia, n (%)</t>
+        </is>
+      </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>374 (58.7)</t>
+          <t>40 (6.3)</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>1754 (68.0)</t>
+          <t>130 (5.0)</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Connective Tissue Disease, n (%)</t>
+          <t>Urinary Tract Infection, n (%)</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -2082,17 +2102,17 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>62 (4.1)</t>
+          <t>4 (0.3)</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>305 (4.3)</t>
+          <t>33 (0.5)</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Pneumonia, n (%)</t>
+          <t>Urinary Tract Infection, n (%)</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -2102,17 +2122,17 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>28 (5.4)</t>
+          <t>5 (1.0)</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>122 (4.7)</t>
+          <t>29 (1.1)</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>Connective Tissue Disease, n (%)</t>
+          <t>Urinary Tract Infection, n (%)</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -2122,19 +2142,19 @@
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>27 (4.2)</t>
+          <t>3 (0.5)</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>101 (3.9)</t>
+          <t>13 (0.5)</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Pneumonia, n (%)</t>
+          <t>Biliary Tract Infection, n (%)</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -2144,17 +2164,17 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>103 (6.9)</t>
+          <t>1 (0.1)</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>384 (5.4)</t>
+          <t>14 (0.2)</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Urinary Tract Infection, n (%)</t>
+          <t>Biliary Tract Infection, n (%)</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -2162,19 +2182,15 @@
           <t>1.0</t>
         </is>
       </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>5 (1.0)</t>
-        </is>
-      </c>
+      <c r="G32" t="inlineStr"/>
       <c r="H32" t="inlineStr">
         <is>
-          <t>29 (1.1)</t>
+          <t>9 (0.3)</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>Pneumonia, n (%)</t>
+          <t>Biliary Tract Infection, n (%)</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -2182,21 +2198,17 @@
           <t>1.0</t>
         </is>
       </c>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>40 (6.3)</t>
-        </is>
-      </c>
+      <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr">
         <is>
-          <t>130 (5.0)</t>
+          <t>7 (0.3)</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Urinary Tract Infection, n (%)</t>
+          <t>Skin Infection, n (%)</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -2206,17 +2218,17 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>4 (0.3)</t>
+          <t>2 (0.1)</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>33 (0.5)</t>
+          <t>9 (0.1)</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Biliary Tract Infection, n (%)</t>
+          <t>Skin Infection, n (%)</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -2227,12 +2239,12 @@
       <c r="G33" t="inlineStr"/>
       <c r="H33" t="inlineStr">
         <is>
-          <t>9 (0.3)</t>
+          <t>1 (0.0)</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>Urinary Tract Infection, n (%)</t>
+          <t>Skin Infection, n (%)</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -2242,469 +2254,457 @@
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>3 (0.5)</t>
+          <t>1 (0.2)</t>
         </is>
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>13 (0.5)</t>
+          <t>3 (0.1)</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Biliary Tract Infection, n (%)</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>1.0</t>
-        </is>
-      </c>
+          <t>Age, median [Q1,Q3]</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr"/>
       <c r="C34" t="inlineStr">
         <is>
-          <t>1 (0.1)</t>
+          <t>64 [51,76]</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>14 (0.2)</t>
+          <t>68 [58,79]</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Skin Infection, n (%)</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>1.0</t>
-        </is>
-      </c>
-      <c r="G34" t="inlineStr"/>
+          <t>Age, median [Q1,Q3]</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr"/>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>69 [57,78]</t>
+        </is>
+      </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>1 (0.0)</t>
+          <t>70 [60,80]</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>Biliary Tract Infection, n (%)</t>
-        </is>
-      </c>
-      <c r="J34" t="inlineStr">
-        <is>
-          <t>1.0</t>
-        </is>
-      </c>
-      <c r="K34" t="inlineStr"/>
+          <t>Age, median [Q1,Q3]</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>65 [51,77]</t>
+        </is>
+      </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>7 (0.3)</t>
+          <t>69 [58,79]</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Skin Infection, n (%)</t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>1.0</t>
-        </is>
-      </c>
+          <t>ICU LOS (days, if deceased), median [Q1,Q3]</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr"/>
       <c r="C35" t="inlineStr">
         <is>
-          <t>2 (0.1)</t>
+          <t>5.83 [3.54,10.17]</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>9 (0.1)</t>
+          <t>5.90 [3.57,10.51]</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Age, median [Q1,Q3]</t>
+          <t>ICU LOS (days, if deceased), median [Q1,Q3]</t>
         </is>
       </c>
       <c r="F35" t="inlineStr"/>
       <c r="G35" t="inlineStr">
         <is>
-          <t>69 [57,78]</t>
+          <t>5.50 [3.13,10.08]</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>70 [60,80]</t>
+          <t>5.79 [3.38,10.71]</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>Skin Infection, n (%)</t>
-        </is>
-      </c>
-      <c r="J35" t="inlineStr">
-        <is>
-          <t>1.0</t>
-        </is>
-      </c>
+          <t>ICU LOS (days, if deceased), median [Q1,Q3]</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr">
         <is>
-          <t>1 (0.2)</t>
+          <t>5.00 [3.42,9.63]</t>
         </is>
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>3 (0.1)</t>
+          <t>5.50 [3.25,10.17]</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Age, median [Q1,Q3]</t>
+          <t>ICU LOS (days, if survived), median [Q1,Q3]</t>
         </is>
       </c>
       <c r="B36" t="inlineStr"/>
       <c r="C36" t="inlineStr">
         <is>
-          <t>64 [51,76]</t>
+          <t>4.54 [2.96,8.79]</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>68 [58,79]</t>
+          <t>4.42 [2.92,8.17]</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>ICU LOS (days, if deceased), median [Q1,Q3]</t>
+          <t>ICU LOS (days, if survived), median [Q1,Q3]</t>
         </is>
       </c>
       <c r="F36" t="inlineStr"/>
       <c r="G36" t="inlineStr">
         <is>
-          <t>5.50 [3.13,10.08]</t>
+          <t>4.83 [2.99,8.52]</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>5.79 [3.38,10.71]</t>
+          <t>4.38 [2.88,8.00]</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>Age, median [Q1,Q3]</t>
+          <t>ICU LOS (days, if survived), median [Q1,Q3]</t>
         </is>
       </c>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr">
         <is>
-          <t>65 [51,77]</t>
+          <t>4.58 [2.96,8.93]</t>
         </is>
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>69 [58,79]</t>
+          <t>4.21 [2.88,8.17]</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>ICU LOS (days, if deceased), median [Q1,Q3]</t>
+          <t>Charlson Comorbidity Index, median [Q1,Q3]</t>
         </is>
       </c>
       <c r="B37" t="inlineStr"/>
       <c r="C37" t="inlineStr">
         <is>
-          <t>5.83 [3.54,10.17]</t>
+          <t>6 [4,8]</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>5.90 [3.57,10.51]</t>
+          <t>6 [4,8]</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>ICU LOS (days, if survived), median [Q1,Q3]</t>
+          <t>Charlson Comorbidity Index, median [Q1,Q3]</t>
         </is>
       </c>
       <c r="F37" t="inlineStr"/>
       <c r="G37" t="inlineStr">
         <is>
-          <t>4.83 [2.99,8.52]</t>
+          <t>6 [5,9]</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>4.38 [2.88,8.00]</t>
+          <t>6 [4,8]</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>ICU LOS (days, if deceased), median [Q1,Q3]</t>
+          <t>Charlson Comorbidity Index, median [Q1,Q3]</t>
         </is>
       </c>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr">
         <is>
-          <t>5.00 [3.42,9.63]</t>
+          <t>6 [4,9]</t>
         </is>
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>5.50 [3.25,10.17]</t>
+          <t>6 [4,8]</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>ICU LOS (days, if survived), median [Q1,Q3]</t>
+          <t>SOFA Score (admission), median [Q1,Q3]</t>
         </is>
       </c>
       <c r="B38" t="inlineStr"/>
       <c r="C38" t="inlineStr">
         <is>
-          <t>4.54 [2.96,8.79]</t>
+          <t>6 [4,9]</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>4.42 [2.92,8.17]</t>
+          <t>6 [4,9]</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Charlson Comorbidity Index, median [Q1,Q3]</t>
+          <t>SOFA Score (admission), median [Q1,Q3]</t>
         </is>
       </c>
       <c r="F38" t="inlineStr"/>
       <c r="G38" t="inlineStr">
         <is>
-          <t>6 [5,9]</t>
+          <t>7 [4,10]</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>6 [4,8]</t>
+          <t>6 [4,9]</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>ICU LOS (days, if survived), median [Q1,Q3]</t>
+          <t>SOFA Score (admission), median [Q1,Q3]</t>
         </is>
       </c>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr">
         <is>
-          <t>4.58 [2.96,8.93]</t>
+          <t>7 [5,10]</t>
         </is>
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>4.21 [2.88,8.17]</t>
+          <t>7 [4,10]</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Charlson Comorbidity Index, median [Q1,Q3]</t>
+          <t>MV Time (duration in the stay, % of ICU LOS), median [Q1,Q3]</t>
         </is>
       </c>
       <c r="B39" t="inlineStr"/>
       <c r="C39" t="inlineStr">
         <is>
-          <t>6 [4,8]</t>
+          <t>0.33 [0.16,0.54]</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>6 [4,8]</t>
+          <t>0.29 [0.15,0.48]</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>SOFA Score (admission), median [Q1,Q3]</t>
+          <t>MV Time (duration in the stay, % of ICU LOS), median [Q1,Q3]</t>
         </is>
       </c>
       <c r="F39" t="inlineStr"/>
       <c r="G39" t="inlineStr">
         <is>
-          <t>7 [4,10]</t>
+          <t>0.36 [0.17,0.57]</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>6 [4,9]</t>
+          <t>0.29 [0.14,0.49]</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>Charlson Comorbidity Index, median [Q1,Q3]</t>
+          <t>MV Time (duration in the stay, % of ICU LOS), median [Q1,Q3]</t>
         </is>
       </c>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr">
         <is>
-          <t>6 [4,9]</t>
+          <t>0.35 [0.17,0.56]</t>
         </is>
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>6 [4,8]</t>
+          <t>0.30 [0.16,0.52]</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>SOFA Score (admission), median [Q1,Q3]</t>
+          <t>MV_init_offset_abs_hours, median [Q1,Q3]</t>
         </is>
       </c>
       <c r="B40" t="inlineStr"/>
       <c r="C40" t="inlineStr">
         <is>
-          <t>6 [4,9]</t>
+          <t>2.0 [1.0,7.0]</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>6 [4,9]</t>
+          <t>3.0 [1.0,8.0]</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>MV Time (duration in the stay, % of ICU LOS), median [Q1,Q3]</t>
+          <t>MV_init_offset_abs_hours, median [Q1,Q3]</t>
         </is>
       </c>
       <c r="F40" t="inlineStr"/>
       <c r="G40" t="inlineStr">
         <is>
-          <t>0.36 [0.17,0.57]</t>
+          <t>3.0 [1.0,8.0]</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>0.29 [0.14,0.49]</t>
+          <t>3.0 [1.0,7.0]</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>SOFA Score (admission), median [Q1,Q3]</t>
+          <t>MV_init_offset_abs_hours, median [Q1,Q3]</t>
         </is>
       </c>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr">
         <is>
-          <t>7 [5,10]</t>
+          <t>2.0 [1.0,8.0]</t>
         </is>
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>7 [4,10]</t>
+          <t>3.0 [1.0,9.0]</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>MV Time (duration in the stay, % of ICU LOS), median [Q1,Q3]</t>
+          <t>RRT_init_offset_abs_hours, median [Q1,Q3]</t>
         </is>
       </c>
       <c r="B41" t="inlineStr"/>
       <c r="C41" t="inlineStr">
         <is>
-          <t>0.33 [0.16,0.54]</t>
+          <t>41.0 [10.0,91.0]</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>0.29 [0.15,0.48]</t>
+          <t>45.0 [12.0,100.2]</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>MV_init_offset_abs_hours, median [Q1,Q3]</t>
+          <t>RRT_init_offset_abs_hours, median [Q1,Q3]</t>
         </is>
       </c>
       <c r="F41" t="inlineStr"/>
       <c r="G41" t="inlineStr">
         <is>
-          <t>3.0 [1.0,8.0]</t>
+          <t>34.0 [12.0,74.0]</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>3.0 [1.0,7.0]</t>
+          <t>36.0 [11.0,76.2]</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>MV Time (duration in the stay, % of ICU LOS), median [Q1,Q3]</t>
+          <t>RRT_init_offset_abs_hours, median [Q1,Q3]</t>
         </is>
       </c>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr">
         <is>
-          <t>0.35 [0.17,0.56]</t>
+          <t>31.0 [12.5,65.5]</t>
         </is>
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>0.30 [0.16,0.52]</t>
+          <t>34.0 [11.0,76.0]</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>MV_init_offset_abs_hours, median [Q1,Q3]</t>
+          <t>VP_init_offset_abs_hours, median [Q1,Q3]</t>
         </is>
       </c>
       <c r="B42" t="inlineStr"/>
       <c r="C42" t="inlineStr">
         <is>
-          <t>2.0 [1.0,7.0]</t>
+          <t>3.0 [1.0,11.0]</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>3.0 [1.0,8.0]</t>
+          <t>3.0 [1.0,10.0]</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>RRT_init_offset_abs_hours, median [Q1,Q3]</t>
+          <t>VP_init_offset_abs_hours, median [Q1,Q3]</t>
         </is>
       </c>
       <c r="F42" t="inlineStr"/>
       <c r="G42" t="inlineStr">
         <is>
-          <t>34.0 [12.0,74.0]</t>
+          <t>3.0 [1.0,11.0]</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>36.0 [11.0,76.2]</t>
+          <t>3.0 [1.0,8.0]</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>MV_init_offset_abs_hours, median [Q1,Q3]</t>
+          <t>VP_init_offset_abs_hours, median [Q1,Q3]</t>
         </is>
       </c>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr">
         <is>
-          <t>2.0 [1.0,8.0]</t>
+          <t>3.0 [1.0,11.5]</t>
         </is>
       </c>
       <c r="L42" t="inlineStr">
@@ -2716,136 +2716,48 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>RRT_init_offset_abs_hours, median [Q1,Q3]</t>
+          <t>Vasopressor Time (duration in the stay, % of ICU LOS), median [Q1,Q3]</t>
         </is>
       </c>
       <c r="B43" t="inlineStr"/>
       <c r="C43" t="inlineStr">
         <is>
-          <t>41.0 [10.0,91.0]</t>
+          <t>0.25 [0.10,0.48]</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>45.0 [12.0,100.2]</t>
+          <t>0.25 [0.09,0.47]</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>VP_init_offset_abs_hours, median [Q1,Q3]</t>
+          <t>Vasopressor Time (duration in the stay, % of ICU LOS), median [Q1,Q3]</t>
         </is>
       </c>
       <c r="F43" t="inlineStr"/>
       <c r="G43" t="inlineStr">
         <is>
-          <t>3.0 [1.0,11.0]</t>
+          <t>0.27 [0.07,0.52]</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>3.0 [1.0,8.0]</t>
+          <t>0.28 [0.10,0.52]</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>RRT_init_offset_abs_hours, median [Q1,Q3]</t>
+          <t>Vasopressor Time (duration in the stay, % of ICU LOS), median [Q1,Q3]</t>
         </is>
       </c>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr">
         <is>
-          <t>31.0 [12.5,65.5]</t>
+          <t>0.29 [0.13,0.53]</t>
         </is>
       </c>
       <c r="L43" t="inlineStr">
-        <is>
-          <t>34.0 [11.0,76.0]</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>VP_init_offset_abs_hours, median [Q1,Q3]</t>
-        </is>
-      </c>
-      <c r="B44" t="inlineStr"/>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>3.0 [1.0,11.0]</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>3.0 [1.0,10.0]</t>
-        </is>
-      </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>Vasopressor Time (duration in the stay, % of ICU LOS), median [Q1,Q3]</t>
-        </is>
-      </c>
-      <c r="F44" t="inlineStr"/>
-      <c r="G44" t="inlineStr">
-        <is>
-          <t>0.27 [0.07,0.52]</t>
-        </is>
-      </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>0.28 [0.10,0.52]</t>
-        </is>
-      </c>
-      <c r="I44" t="inlineStr">
-        <is>
-          <t>VP_init_offset_abs_hours, median [Q1,Q3]</t>
-        </is>
-      </c>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>3.0 [1.0,11.5]</t>
-        </is>
-      </c>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>3.0 [1.0,9.0]</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>Vasopressor Time (duration in the stay, % of ICU LOS), median [Q1,Q3]</t>
-        </is>
-      </c>
-      <c r="B45" t="inlineStr"/>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>0.25 [0.10,0.48]</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>0.25 [0.09,0.47]</t>
-        </is>
-      </c>
-      <c r="E45" t="inlineStr"/>
-      <c r="F45" t="inlineStr"/>
-      <c r="G45" t="inlineStr"/>
-      <c r="H45" t="inlineStr"/>
-      <c r="I45" t="inlineStr">
-        <is>
-          <t>Vasopressor Time (duration in the stay, % of ICU LOS), median [Q1,Q3]</t>
-        </is>
-      </c>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>0.29 [0.13,0.53]</t>
-        </is>
-      </c>
-      <c r="L45" t="inlineStr">
         <is>
           <t>0.34 [0.15,0.57]</t>
         </is>
